--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr3_Np1_Nj0.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr3_Np1_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Row</t>
   </si>
@@ -106,6 +106,72 @@
   </si>
   <si>
     <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -181,13 +247,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
     <col min="2" max="2" width="12.64453125" customWidth="true"/>
     <col min="3" max="3" width="15.24609375" customWidth="true"/>
-    <col min="4" max="4" width="14.64453125" customWidth="true"/>
+    <col min="4" max="4" width="15.64453125" customWidth="true"/>
     <col min="5" max="5" width="16.24609375" customWidth="true"/>
     <col min="6" max="6" width="16.24609375" customWidth="true"/>
     <col min="7" max="7" width="16.24609375" customWidth="true"/>
@@ -199,45 +265,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B2" s="0">
-        <v>0.30877457350297738</v>
+        <v>0.30831948545269261</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -269,317 +335,352 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B3" s="0">
-        <v>0.31526840500094566</v>
+        <v>0.31486425940396073</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0.0080793215970295911</v>
+        <v>0.0081245713270222571</v>
       </c>
       <c r="E3" s="0">
-        <v>-0.00013226048336672944</v>
+        <v>-0.00013448109970777696</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.00015365665966495797</v>
+        <v>-0.00015932350588940234</v>
       </c>
       <c r="G3" s="0">
-        <v>-0.00031586233558566069</v>
+        <v>-0.00031050336145567339</v>
       </c>
       <c r="H3" s="0">
-        <v>-2.035899597623553e-06</v>
+        <v>-1.9455427035020168e-06</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.0010085954850150491</v>
+        <v>-0.0010004638109840493</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>2.692076416871414e-05</v>
+        <v>2.6919944986270039e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B4" s="0">
-        <v>0.29934364094300231</v>
+        <v>0.29730323389085872</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.0015738541956897521</v>
+        <v>-0.0032350644379705897</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>-1.2955061561201988e-05</v>
+        <v>-1.2947143763155565e-05</v>
       </c>
       <c r="F4" s="0">
-        <v>-6.7655141229139388e-05</v>
+        <v>-6.7325644468791521e-05</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>-0.00033975949868778933</v>
+        <v>-0.00033777251427091797</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.013843706347115431</v>
+        <v>-0.013821083459497624</v>
       </c>
       <c r="J4" s="0">
-        <v>5.8746278727522062e-08</v>
+        <v>6.2025388409628302e-08</v>
       </c>
       <c r="K4" s="0">
-        <v>-8.68925599387671e-05</v>
+        <v>-8.6894338519327707e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B5" s="0">
-        <v>0.3190862421150828</v>
+        <v>0.31927098376615248</v>
       </c>
       <c r="C5" s="0">
-        <v>0.024494724351989742</v>
+        <v>0.026697885389309419</v>
       </c>
       <c r="D5" s="0">
-        <v>0.00024268285897319808</v>
+        <v>0.00025161284594377463</v>
       </c>
       <c r="E5" s="0">
-        <v>0.00069582094800604887</v>
+        <v>0.00069992423982369529</v>
       </c>
       <c r="F5" s="0">
-        <v>0.0019722943848473505</v>
+        <v>0.0019849436057352882</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.0063915068110671023</v>
+        <v>-0.0063969202373671263</v>
       </c>
       <c r="H5" s="0">
-        <v>-5.6886553037490081e-05</v>
+        <v>-5.6867057530375981e-05</v>
       </c>
       <c r="I5" s="0">
-        <v>-0.0012319700195989661</v>
+        <v>-0.0012302620062785738</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>1.7442011967683246e-05</v>
+        <v>1.7433095657659603e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B6" s="0">
-        <v>0.55123349077864947</v>
+        <v>0.55264753539621925</v>
       </c>
       <c r="C6" s="0">
-        <v>0.2605515462045449</v>
+        <v>0.26199082542929136</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>3.6984971719714402e-05</v>
+        <v>3.6982969579188542e-05</v>
       </c>
       <c r="F6" s="0">
-        <v>0.00026495886900183298</v>
+        <v>0.00026366035932517008</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-1.4475318656428426e-05</v>
+        <v>-1.4515526708548298e-05</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.028691147226100597</v>
+        <v>-0.028899743422311129</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>-6.1883694274511569e-07</v>
+        <v>-6.5817910932519652e-07</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B7" s="0">
-        <v>0.49030743149915551</v>
+        <v>0.49122394864071234</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.059440431553042315</v>
+        <v>-0.0598994944903102</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.0010295545133644252</v>
+        <v>-0.0010324772290511621</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.0035845831072980556</v>
+        <v>-0.0036218883389704738</v>
       </c>
       <c r="G7" s="0">
-        <v>0.0030017475573705442</v>
+        <v>0.0030053606567661591</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>6.6738738357263185e-05</v>
+        <v>6.4880417839976393e-05</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>6.0023598483005536e-05</v>
+        <v>6.0032228218820372e-05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B8" s="0">
-        <v>0.27438248386279229</v>
+        <v>0.27679020651193353</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.18073703290177626</v>
+        <v>-0.17950456354252409</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>-0.00013291114078180805</v>
+        <v>-0.00013294355343508696</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.008960556364650497</v>
+        <v>-0.0089662267435679874</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>2.2034690270385914e-05</v>
+        <v>2.1918988089370201e-05</v>
       </c>
       <c r="I8" s="0">
-        <v>-0.03348021480098759</v>
+        <v>-0.033215700468708351</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>0.0073637328815625569</v>
+        <v>0.0073637731913673288</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B9" s="0">
-        <v>0.10949844906345935</v>
+        <v>0.11025296944415272</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.039622505049233384</v>
+        <v>-0.040437421018923829</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.014089156960913864</v>
+        <v>-0.014145558952022252</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.10555467345352881</v>
+        <v>-0.10626882866306611</v>
       </c>
       <c r="G9" s="0">
-        <v>-0.0074924982121575955</v>
+        <v>-0.0075313578045963451</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.0012729781413905665</v>
+        <v>-0.0013010031260203402</v>
       </c>
       <c r="I9" s="0">
-        <v>0.0029669180675627764</v>
+        <v>0.002966066238598737</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>0.00018085895032848853</v>
+        <v>0.00018086625824931257</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B10" s="0">
-        <v>0.19021128156947298</v>
+        <v>0.19794785182838093</v>
       </c>
       <c r="C10" s="0">
-        <v>0.10959225418779911</v>
+        <v>0.11677208862318753</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>-0.00041203872099765008</v>
+        <v>-0.0004120552595670787</v>
       </c>
       <c r="F10" s="0">
-        <v>0.0040347508782063628</v>
+        <v>0.0040433983143554819</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>-0.00014458882966159777</v>
+        <v>-0.00014454481011724816</v>
       </c>
       <c r="I10" s="0">
-        <v>0.039646411086017561</v>
+        <v>0.039328424003530968</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.081352131838664729</v>
+        <v>-0.081240589401233451</v>
       </c>
       <c r="K10" s="0">
-        <v>0.0093481757433145907</v>
+        <v>0.0093481609140720207</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B11" s="0">
-        <v>0.32964405608373426</v>
+        <v>0.33684796809920919</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>0.080421598796969307</v>
+        <v>0.079388523460980853</v>
       </c>
       <c r="E11" s="0">
-        <v>0.0030885531511689922</v>
+        <v>0.0030959158918781159</v>
       </c>
       <c r="F11" s="0">
-        <v>0.05002443361583505</v>
+        <v>0.050313717646161535</v>
       </c>
       <c r="G11" s="0">
-        <v>-0.015758928131383639</v>
+        <v>-0.01578367133064049</v>
       </c>
       <c r="H11" s="0">
-        <v>-0.0038661203538603393</v>
+        <v>-0.003851322103420169</v>
       </c>
       <c r="I11" s="0">
-        <v>0.071013257824038986</v>
+        <v>0.071226949947290993</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>-0.04549002038850708</v>
+        <v>-0.045489997241422553</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="0">
+        <v>0.21517101278620621</v>
+      </c>
+      <c r="C12" s="0">
+        <v>-0.026704067178539403</v>
+      </c>
+      <c r="D12" s="0">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0">
+        <v>0.00070203995801142042</v>
+      </c>
+      <c r="F12" s="0">
+        <v>1.3766018984163579e-05</v>
+      </c>
+      <c r="G12" s="0">
+        <v>0</v>
+      </c>
+      <c r="H12" s="0">
+        <v>3.9100687928682059e-05</v>
+      </c>
+      <c r="I12" s="0">
+        <v>-0.051605621167756077</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0</v>
+      </c>
+      <c r="K12" s="0">
+        <v>-0.044122173631631789</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr3_Np1_Nj0.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr3_Np1_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>Row</t>
   </si>
@@ -172,6 +172,147 @@
   </si>
   <si>
     <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -247,63 +388,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K14"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
-    <col min="2" max="2" width="12.64453125" customWidth="true"/>
+    <col min="2" max="2" width="13.64453125" customWidth="true"/>
     <col min="3" max="3" width="15.24609375" customWidth="true"/>
     <col min="4" max="4" width="15.64453125" customWidth="true"/>
     <col min="5" max="5" width="16.24609375" customWidth="true"/>
     <col min="6" max="6" width="16.24609375" customWidth="true"/>
     <col min="7" max="7" width="16.24609375" customWidth="true"/>
     <col min="8" max="8" width="16.24609375" customWidth="true"/>
-    <col min="9" max="9" width="15.24609375" customWidth="true"/>
+    <col min="9" max="9" width="16.24609375" customWidth="true"/>
     <col min="10" max="10" width="15.1796875" customWidth="true"/>
     <col min="11" max="11" width="15.77734375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="B2" s="0">
-        <v>0.30831948545269261</v>
+        <v>0.30814644003333164</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -335,352 +476,422 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="B3" s="0">
-        <v>0.31486425940396073</v>
+        <v>0.31471546139750689</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0.0081245713270222571</v>
+        <v>0.0081222802123320902</v>
       </c>
       <c r="E3" s="0">
-        <v>-0.00013448109970777696</v>
+        <v>-0.00013332512397259554</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.00015932350588940234</v>
+        <v>-0.00015398459127369257</v>
       </c>
       <c r="G3" s="0">
-        <v>-0.00031050336145567339</v>
+        <v>-0.00030220826251668048</v>
       </c>
       <c r="H3" s="0">
-        <v>-1.9455427035020168e-06</v>
+        <v>-1.9762061933965103e-06</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.0010004638109840493</v>
+        <v>-0.00098868440306275167</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>2.6919944986270039e-05</v>
+        <v>2.6919738862263287e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="B4" s="0">
-        <v>0.29730323389085872</v>
+        <v>0.29847497489474956</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.0032350644379705897</v>
+        <v>-0.001924679461901925</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>-1.2947143763155565e-05</v>
+        <v>-1.2946557044874281e-05</v>
       </c>
       <c r="F4" s="0">
-        <v>-6.7325644468791521e-05</v>
+        <v>-6.7512779533564286e-05</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>-0.00033777251427091797</v>
+        <v>-0.00033620292138891798</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.013821083459497624</v>
+        <v>-0.013812250168490105</v>
       </c>
       <c r="J4" s="0">
-        <v>6.2025388409628302e-08</v>
+        <v>6.1555266152501489e-08</v>
       </c>
       <c r="K4" s="0">
-        <v>-8.6894338519327707e-05</v>
+        <v>-8.6956169664087479e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="B5" s="0">
-        <v>0.31927098376615248</v>
+        <v>0.31798734975172432</v>
       </c>
       <c r="C5" s="0">
-        <v>0.026697885389309419</v>
+        <v>0.024286761386669423</v>
       </c>
       <c r="D5" s="0">
-        <v>0.00025161284594377463</v>
+        <v>0.00025429552073397903</v>
       </c>
       <c r="E5" s="0">
-        <v>0.00069992423982369529</v>
+        <v>0.00069807188768993391</v>
       </c>
       <c r="F5" s="0">
-        <v>0.0019849436057352882</v>
+        <v>0.0019798647701846465</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.0063969202373671263</v>
+        <v>-0.0064384091837365364</v>
       </c>
       <c r="H5" s="0">
-        <v>-5.6867057530375981e-05</v>
+        <v>-5.6857943562041462e-05</v>
       </c>
       <c r="I5" s="0">
-        <v>-0.0012302620062785738</v>
+        <v>-0.0012288027744018573</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>1.7433095657659603e-05</v>
+        <v>1.7451193397244325e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="B6" s="0">
-        <v>0.55264753539621925</v>
+        <v>0.55453625362630987</v>
       </c>
       <c r="C6" s="0">
-        <v>0.26199082542929136</v>
+        <v>0.26524463974079132</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>3.6982969579188542e-05</v>
+        <v>3.698486743545796e-05</v>
       </c>
       <c r="F6" s="0">
-        <v>0.00026366035932517008</v>
+        <v>0.00026163466794653701</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-1.4515526708548298e-05</v>
+        <v>-1.4411044839113921e-05</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.028899743422311129</v>
+        <v>-0.028979259954838632</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>-6.5817910932519652e-07</v>
+        <v>-6.8440191003382722e-07</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="B7" s="0">
-        <v>0.49122394864071234</v>
+        <v>0.49290385255673674</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.0598994944903102</v>
+        <v>-0.060103488534011942</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.0010324772290511621</v>
+        <v>-0.0010352893859994175</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.0036218883389704738</v>
+        <v>-0.0036390210105388026</v>
       </c>
       <c r="G7" s="0">
-        <v>0.0030053606567661591</v>
+        <v>0.0030195866848795137</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>6.4880417839976393e-05</v>
+        <v>6.5776071009161525e-05</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>6.0032228218820372e-05</v>
+        <v>6.0035105088340757e-05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="B8" s="0">
-        <v>0.27679020651193353</v>
+        <v>0.26470517223212892</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.17950456354252409</v>
+        <v>-0.19361462612145014</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>-0.00013294355343508696</v>
+        <v>-0.00013301886663930404</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.0089662267435679874</v>
+        <v>-0.0089840520327050151</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>2.1918988089370201e-05</v>
+        <v>2.1848326168703752e-05</v>
       </c>
       <c r="I8" s="0">
-        <v>-0.033215700468708351</v>
+        <v>-0.032852696788672107</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>0.0073637731913673288</v>
+        <v>0.0073638651586900306</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="B9" s="0">
-        <v>0.11025296944415272</v>
+        <v>0.099784818330765884</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.040437421018923829</v>
+        <v>-0.038703068468926898</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.014145558952022252</v>
+        <v>-0.014188692783123713</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.10626882866306611</v>
+        <v>-0.10641822834433311</v>
       </c>
       <c r="G9" s="0">
-        <v>-0.0075313578045963451</v>
+        <v>-0.0074486262344544696</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.0013010031260203402</v>
+        <v>-0.0013061354083273437</v>
       </c>
       <c r="I9" s="0">
-        <v>0.002966066238598737</v>
+        <v>0.0029635717828217275</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>0.00018086625824931257</v>
+        <v>0.00018082555498077912</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="B10" s="0">
-        <v>0.19794785182838093</v>
+        <v>0.18785350305005294</v>
       </c>
       <c r="C10" s="0">
-        <v>0.11677208862318753</v>
+        <v>0.11587517944578005</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>-0.0004120552595670787</v>
+        <v>-0.0004121368391238081</v>
       </c>
       <c r="F10" s="0">
-        <v>0.0040433983143554819</v>
+        <v>0.0040892876196247513</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>-0.00014454481011724816</v>
+        <v>-0.00014440389766898673</v>
       </c>
       <c r="I10" s="0">
-        <v>0.039328424003530968</v>
+        <v>0.039702294780276662</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.081240589401233451</v>
+        <v>-0.080389700521103793</v>
       </c>
       <c r="K10" s="0">
-        <v>0.0093481609140720207</v>
+        <v>0.0093481641315021763</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="B11" s="0">
-        <v>0.33684796809920919</v>
+        <v>0.33271644088885072</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>0.079388523460980853</v>
+        <v>0.082343613989578957</v>
       </c>
       <c r="E11" s="0">
-        <v>0.0030959158918781159</v>
+        <v>0.0034089719794421361</v>
       </c>
       <c r="F11" s="0">
-        <v>0.050313717646161535</v>
+        <v>0.05233797760841756</v>
       </c>
       <c r="G11" s="0">
-        <v>-0.01578367133064049</v>
+        <v>-0.01575597625136517</v>
       </c>
       <c r="H11" s="0">
-        <v>-0.003851322103420169</v>
+        <v>-0.003782822973923411</v>
       </c>
       <c r="I11" s="0">
-        <v>0.071226949947290993</v>
+        <v>0.071801194716487063</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>-0.045489997241422553</v>
+        <v>-0.045490021229839361</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="B12" s="0">
-        <v>0.21517101278620621</v>
+        <v>0.15087144964314808</v>
       </c>
       <c r="C12" s="0">
-        <v>-0.026704067178539403</v>
+        <v>-0.060732486875345604</v>
       </c>
       <c r="D12" s="0">
         <v>0</v>
       </c>
       <c r="E12" s="0">
-        <v>0.00070203995801142042</v>
+        <v>0.00072378002265880564</v>
       </c>
       <c r="F12" s="0">
-        <v>1.3766018984163579e-05</v>
+        <v>-0.018823643461881485</v>
       </c>
       <c r="G12" s="0">
         <v>0</v>
       </c>
       <c r="H12" s="0">
-        <v>3.9100687928682059e-05</v>
+        <v>-0.011487133693014859</v>
       </c>
       <c r="I12" s="0">
-        <v>-0.051605621167756077</v>
+        <v>-0.04749470405008388</v>
       </c>
       <c r="J12" s="0">
         <v>0</v>
       </c>
       <c r="K12" s="0">
-        <v>-0.044122173631631789</v>
+        <v>-0.044030803188035594</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="0">
+        <v>0.26255835859596977</v>
+      </c>
+      <c r="C13" s="0">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0">
+        <v>-0.059485134470975143</v>
+      </c>
+      <c r="E13" s="0">
+        <v>-0.050144637597850948</v>
+      </c>
+      <c r="F13" s="0">
+        <v>-0.022693238654834715</v>
+      </c>
+      <c r="G13" s="0">
+        <v>-0.0022594342417709716</v>
+      </c>
+      <c r="H13" s="0">
+        <v>0.0058515696471082707</v>
+      </c>
+      <c r="I13" s="0">
+        <v>0.0032994471676468687</v>
+      </c>
+      <c r="J13" s="0">
+        <v>0</v>
+      </c>
+      <c r="K13" s="0">
+        <v>0.23711833710349833</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="0">
+        <v>0.16837874208023074</v>
+      </c>
+      <c r="C14" s="0">
+        <v>-0.020479594284480984</v>
+      </c>
+      <c r="D14" s="0">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0">
+        <v>-0.00080871123325389096</v>
+      </c>
+      <c r="F14" s="0">
+        <v>-0.000483692045727755</v>
+      </c>
+      <c r="G14" s="0">
+        <v>0</v>
+      </c>
+      <c r="H14" s="0">
+        <v>-3.6685542224242453e-05</v>
+      </c>
+      <c r="I14" s="0">
+        <v>-0.072258615905051421</v>
+      </c>
+      <c r="J14" s="0">
+        <v>0</v>
+      </c>
+      <c r="K14" s="0">
+        <v>-0.00011231750500073634</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr3_Np1_Nj0.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr3_Np1_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <si>
     <t>Row</t>
   </si>
@@ -313,6 +313,81 @@
   </si>
   <si>
     <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -388,7 +463,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
@@ -406,42 +481,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="B2" s="0">
         <v>0.30814644003333164</v>
@@ -476,7 +551,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="B3" s="0">
         <v>0.31471546139750689</v>
@@ -511,7 +586,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="B4" s="0">
         <v>0.29847497489474956</v>
@@ -546,7 +621,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="B5" s="0">
         <v>0.31798734975172432</v>
@@ -581,7 +656,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="B6" s="0">
         <v>0.55453625362630987</v>
@@ -616,7 +691,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="B7" s="0">
         <v>0.49290385255673674</v>
@@ -651,7 +726,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="B8" s="0">
         <v>0.26470517223212892</v>
@@ -686,7 +761,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="B9" s="0">
         <v>0.099784818330765884</v>
@@ -721,7 +796,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="B10" s="0">
         <v>0.18785350305005294</v>
@@ -756,7 +831,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="B11" s="0">
         <v>0.33271644088885072</v>
@@ -791,7 +866,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B12" s="0">
         <v>0.15087144964314808</v>
@@ -826,7 +901,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="B13" s="0">
         <v>0.26255835859596977</v>
@@ -861,37 +936,72 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B14" s="0">
-        <v>0.16837874208023074</v>
+        <v>0.1762304236851466</v>
       </c>
       <c r="C14" s="0">
-        <v>-0.020479594284480984</v>
+        <v>0.0023553456869268409</v>
       </c>
       <c r="D14" s="0">
         <v>0</v>
       </c>
       <c r="E14" s="0">
-        <v>-0.00080871123325389096</v>
+        <v>-0.00083483493481261285</v>
       </c>
       <c r="F14" s="0">
-        <v>-0.000483692045727755</v>
+        <v>-0.00016859043800465385</v>
       </c>
       <c r="G14" s="0">
         <v>0</v>
       </c>
       <c r="H14" s="0">
-        <v>-3.6685542224242453e-05</v>
+        <v>-0.009133387098771607</v>
       </c>
       <c r="I14" s="0">
-        <v>-0.072258615905051421</v>
+        <v>-0.061349790408262737</v>
       </c>
       <c r="J14" s="0">
         <v>0</v>
       </c>
       <c r="K14" s="0">
-        <v>-0.00011231750500073634</v>
+        <v>-0.017196677717898401</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="0">
+        <v>-0.2700375915909487</v>
+      </c>
+      <c r="C15" s="0">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0">
+        <v>-0.38254730224872602</v>
+      </c>
+      <c r="E15" s="0">
+        <v>0.0095927694261210943</v>
+      </c>
+      <c r="F15" s="0">
+        <v>0.085746011918340678</v>
+      </c>
+      <c r="G15" s="0">
+        <v>-0.00011832125067399416</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0</v>
+      </c>
+      <c r="K15" s="0">
+        <v>-0.1589411731211571</v>
       </c>
     </row>
   </sheetData>
